--- a/data-zwischenschritt.xlsx
+++ b/data-zwischenschritt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Desktop\world in emojis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19BA952-8EC5-443A-ACD6-146A40FD0191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77A03E8-23D7-4F8A-91F5-429E1A3155B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B396652-8E54-4D42-822E-A7D33D9D829F}"/>
   </bookViews>
@@ -736,13 +736,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B12A9EB-3F34-4AD7-8D83-C281632BA5EF}">
   <dimension ref="A1:AB853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="F859" sqref="F859"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
